--- a/TEST/PEDA_Upload_Template.xlsx
+++ b/TEST/PEDA_Upload_Template.xlsx
@@ -5,23 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OES\AI\PEDAV12\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OES\AI\PEDA_V12\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E695BC-DD00-441A-B13C-19C7D573812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BADA31A-CEA1-4F1F-B615-D3FDE681D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17532" yWindow="2904" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDA Upload Data" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>part_number</t>
   </si>
@@ -106,6 +119,18 @@
   <si>
     <t>C:/OES/AI/PEDAV12/TEST</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34054201A</t>
+  </si>
+  <si>
+    <t>34359075D</t>
+  </si>
+  <si>
+    <t>34359076D</t>
+  </si>
+  <si>
+    <t>YH23170</t>
   </si>
 </sst>
 </file>
@@ -484,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -551,6 +576,26 @@
       </c>
       <c r="H2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TEST/PEDA_Upload_Template.xlsx
+++ b/TEST/PEDA_Upload_Template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OES\AI\PEDA_V12\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BADA31A-CEA1-4F1F-B615-D3FDE681D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9FB5DE-4415-4061-90FE-3FDA995BB66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17532" yWindow="2904" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PEDA Upload Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,51 +35,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>part_number</t>
   </si>
   <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>decision_region</t>
+  </si>
+  <si>
+    <t>decision_value</t>
+  </si>
+  <si>
+    <t>project_type</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
-    <t>project_type</t>
-  </si>
-  <si>
-    <t>reason</t>
+    <t>external_info</t>
+  </si>
+  <si>
+    <t>internal_comment</t>
   </si>
   <si>
     <t>sample_quantity</t>
   </si>
   <si>
-    <t>decision_region</t>
-  </si>
-  <si>
-    <t>decision_value</t>
-  </si>
-  <si>
-    <t>document_maintenance_path</t>
-  </si>
-  <si>
     <t>PN-001-A</t>
   </si>
   <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Pipar Pan</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>C:/PEDA_Documents/</t>
+    <t>External information 1</t>
+  </si>
+  <si>
+    <t>External information 2</t>
+  </si>
+  <si>
+    <t>Internal comment 2</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>字段名 (Field Name)</t>
@@ -93,44 +106,50 @@
     <t>【必填】产品料号，系统会根据此料号搜索产品并创建PEDA。示例：PN-001-A</t>
   </si>
   <si>
-    <t>【必填】联系人名称。示例：Pipar Pan</t>
-  </si>
-  <si>
-    <t>【必填】项目类型，通常填写数字代码。示例：2</t>
-  </si>
-  <si>
     <t>【必填】原因代码，系统预定义的值。示例：250</t>
   </si>
   <si>
-    <t>【必填】样品数量，整数值。示例：10</t>
-  </si>
-  <si>
     <t>【必填】决策区域，产品适用的地区。示例：Asia, Europe</t>
   </si>
   <si>
     <t>【必填】决策值，整数。示例：10</t>
   </si>
   <si>
-    <t>【必填】文档维护路径，系统会在此路径下查找 &lt;part_number&gt; 子文件夹中的所有文档类别文件夹进行上传。示例：C:/PEDA_Documents/ 或 D:\PEDA_Files\</t>
+    <t>【必填】项目类型。示例：2</t>
+  </si>
+  <si>
+    <t>【选填】联系人名称，如为空则使用默认值。示例：Pipar Pan</t>
+  </si>
+  <si>
+    <t>【选填】外部信息，可填写给外部查看的信息。如为空则留空。示例：External information</t>
+  </si>
+  <si>
+    <t>External information</t>
+  </si>
+  <si>
+    <t>【选填】内部备注，可填写内部使用的备注信息。如为空则留空。示例：Internal comment</t>
+  </si>
+  <si>
+    <t>Internal comment</t>
+  </si>
+  <si>
+    <t>【选填】样品数量，如为空则使用默认值。示例：10</t>
+  </si>
+  <si>
+    <t>34359076D</t>
+  </si>
+  <si>
+    <t>34054201A</t>
   </si>
   <si>
     <t>34359074D</t>
   </si>
   <si>
-    <t>C:/OES/AI/PEDAV12/TEST</t>
+    <t>YH23170</t>
+  </si>
+  <si>
+    <t>34359075D</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>34054201A</t>
-  </si>
-  <si>
-    <t>34359075D</t>
-  </si>
-  <si>
-    <t>34359076D</t>
-  </si>
-  <si>
-    <t>YH23170</t>
   </si>
 </sst>
 </file>
@@ -148,6 +167,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -160,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +189,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFF8CBAD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -201,12 +233,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,24 +549,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,61 +584,84 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -608,40 +673,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFC4584-9151-419B-8EAD-F9B325C494C1}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +821,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +832,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,10 +854,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +876,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
